--- a/table/montar_json.xlsx
+++ b/table/montar_json.xlsx
@@ -2366,156 +2366,6 @@
     <t>Arctovish~</t>
   </si>
   <si>
-    <t>Articunodouble</t>
-  </si>
-  <si>
-    <t>Zapdosdouble</t>
-  </si>
-  <si>
-    <t>Moltresdouble</t>
-  </si>
-  <si>
-    <t>Mewtwodouble</t>
-  </si>
-  <si>
-    <t>Raikoudouble</t>
-  </si>
-  <si>
-    <t>Enteidouble</t>
-  </si>
-  <si>
-    <t>Suicunedouble</t>
-  </si>
-  <si>
-    <t>Lugiadouble</t>
-  </si>
-  <si>
-    <t>Ho-ohdouble</t>
-  </si>
-  <si>
-    <t>Regirockdouble</t>
-  </si>
-  <si>
-    <t>Regicedouble</t>
-  </si>
-  <si>
-    <t>Registeeldouble</t>
-  </si>
-  <si>
-    <t>Latiasdouble</t>
-  </si>
-  <si>
-    <t>Latiosdouble</t>
-  </si>
-  <si>
-    <t>Kyogredouble</t>
-  </si>
-  <si>
-    <t>Groudondouble</t>
-  </si>
-  <si>
-    <t>Rayquazadouble</t>
-  </si>
-  <si>
-    <t>Uxiedouble</t>
-  </si>
-  <si>
-    <t>Mespritdouble</t>
-  </si>
-  <si>
-    <t>Azelfdouble</t>
-  </si>
-  <si>
-    <t>Dialgadouble</t>
-  </si>
-  <si>
-    <t>Palkiadouble</t>
-  </si>
-  <si>
-    <t>Heatrandouble</t>
-  </si>
-  <si>
-    <t>Regigigasdouble</t>
-  </si>
-  <si>
-    <t>Giratinadouble</t>
-  </si>
-  <si>
-    <t>Cresseliadouble</t>
-  </si>
-  <si>
-    <t>Cobaliondouble</t>
-  </si>
-  <si>
-    <t>Terrakiondouble</t>
-  </si>
-  <si>
-    <t>Viriziondouble</t>
-  </si>
-  <si>
-    <t>Tornadusdouble</t>
-  </si>
-  <si>
-    <t>Thundurusdouble</t>
-  </si>
-  <si>
-    <t>Reshiramdouble</t>
-  </si>
-  <si>
-    <t>Zekromdouble</t>
-  </si>
-  <si>
-    <t>Landorusdouble</t>
-  </si>
-  <si>
-    <t>Kyuremdouble</t>
-  </si>
-  <si>
-    <t>Xerneasdouble</t>
-  </si>
-  <si>
-    <t>Yveltaldouble</t>
-  </si>
-  <si>
-    <t>Zygardedouble</t>
-  </si>
-  <si>
-    <t>Tapu Kokodouble</t>
-  </si>
-  <si>
-    <t>Tapu Leledouble</t>
-  </si>
-  <si>
-    <t>Tapu Buludouble</t>
-  </si>
-  <si>
-    <t>Tapu Finidouble</t>
-  </si>
-  <si>
-    <t>Cosmogdouble</t>
-  </si>
-  <si>
-    <t>Cosmoemdouble</t>
-  </si>
-  <si>
-    <t>Solgaleodouble</t>
-  </si>
-  <si>
-    <t>Lunaladouble</t>
-  </si>
-  <si>
-    <t>Necrozmadouble</t>
-  </si>
-  <si>
-    <t>Zaciandouble</t>
-  </si>
-  <si>
-    <t>Zamazentadouble</t>
-  </si>
-  <si>
-    <t>Eternatusdouble</t>
-  </si>
-  <si>
     <t>Omastar</t>
   </si>
   <si>
@@ -2721,6 +2571,156 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Articuno</t>
+  </si>
+  <si>
+    <t>Zapdos</t>
+  </si>
+  <si>
+    <t>Moltres</t>
+  </si>
+  <si>
+    <t>Mewtwo</t>
+  </si>
+  <si>
+    <t>Raikou</t>
+  </si>
+  <si>
+    <t>Entei</t>
+  </si>
+  <si>
+    <t>Suicune</t>
+  </si>
+  <si>
+    <t>Lugia</t>
+  </si>
+  <si>
+    <t>Ho-oh</t>
+  </si>
+  <si>
+    <t>Regirock</t>
+  </si>
+  <si>
+    <t>Regice</t>
+  </si>
+  <si>
+    <t>Registeel</t>
+  </si>
+  <si>
+    <t>Latias</t>
+  </si>
+  <si>
+    <t>Latios</t>
+  </si>
+  <si>
+    <t>Kyogre</t>
+  </si>
+  <si>
+    <t>Groudon</t>
+  </si>
+  <si>
+    <t>Rayquaza</t>
+  </si>
+  <si>
+    <t>Uxie</t>
+  </si>
+  <si>
+    <t>Mesprit</t>
+  </si>
+  <si>
+    <t>Azelf</t>
+  </si>
+  <si>
+    <t>Dialga</t>
+  </si>
+  <si>
+    <t>Palkia</t>
+  </si>
+  <si>
+    <t>Heatran</t>
+  </si>
+  <si>
+    <t>Regigigas</t>
+  </si>
+  <si>
+    <t>Giratina</t>
+  </si>
+  <si>
+    <t>Cresselia</t>
+  </si>
+  <si>
+    <t>Cobalion</t>
+  </si>
+  <si>
+    <t>Terrakion</t>
+  </si>
+  <si>
+    <t>Virizion</t>
+  </si>
+  <si>
+    <t>Tornadus</t>
+  </si>
+  <si>
+    <t>Thundurus</t>
+  </si>
+  <si>
+    <t>Reshiram</t>
+  </si>
+  <si>
+    <t>Zekrom</t>
+  </si>
+  <si>
+    <t>Landorus</t>
+  </si>
+  <si>
+    <t>Kyurem</t>
+  </si>
+  <si>
+    <t>Xerneas</t>
+  </si>
+  <si>
+    <t>Yveltal</t>
+  </si>
+  <si>
+    <t>Zygarde</t>
+  </si>
+  <si>
+    <t>Tapu Koko</t>
+  </si>
+  <si>
+    <t>Tapu Lele</t>
+  </si>
+  <si>
+    <t>Tapu Bulu</t>
+  </si>
+  <si>
+    <t>Tapu Fini</t>
+  </si>
+  <si>
+    <t>Cosmog</t>
+  </si>
+  <si>
+    <t>Cosmoem</t>
+  </si>
+  <si>
+    <t>Solgaleo</t>
+  </si>
+  <si>
+    <t>Lunala</t>
+  </si>
+  <si>
+    <t>Necrozma</t>
+  </si>
+  <si>
+    <t>Zacian</t>
+  </si>
+  <si>
+    <t>Zamazenta</t>
+  </si>
+  <si>
+    <t>Eternatus</t>
   </si>
 </sst>
 </file>
@@ -3040,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C900"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,10 +3052,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="B1" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE("{
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("{""pokedex"": """, TEXT(A2,"000"),""", ""busca"": [","""",A2,"""",", ", """",B2,"""","]}")</f>
@@ -3105,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3357,7 +3357,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4653,7 +4653,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -4725,7 +4725,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>830</v>
+        <v>780</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -4785,11 +4785,11 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>780</v>
+        <v>849</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
-        <v>,{"pokedex": "144", "busca": ["144", "Articunodouble"]}</v>
+        <v>,{"pokedex": "144", "busca": ["144", "Articuno"]}</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4797,11 +4797,11 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>781</v>
+        <v>850</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
-        <v>,{"pokedex": "145", "busca": ["145", "Zapdosdouble"]}</v>
+        <v>,{"pokedex": "145", "busca": ["145", "Zapdos"]}</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,11 +4809,11 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>782</v>
+        <v>851</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
-        <v>,{"pokedex": "146", "busca": ["146", "Moltresdouble"]}</v>
+        <v>,{"pokedex": "146", "busca": ["146", "Moltres"]}</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,11 +4857,11 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>783</v>
+        <v>852</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
-        <v>,{"pokedex": "150", "busca": ["150", "Mewtwodouble"]}</v>
+        <v>,{"pokedex": "150", "busca": ["150", "Mewtwo"]}</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -4881,7 +4881,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -4917,7 +4917,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>877</v>
+        <v>827</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -4953,7 +4953,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -5121,7 +5121,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>831</v>
+        <v>781</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -5133,7 +5133,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>832</v>
+        <v>782</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -5145,7 +5145,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
@@ -5157,7 +5157,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
@@ -5889,7 +5889,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
@@ -5913,7 +5913,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
@@ -5925,7 +5925,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
@@ -5937,7 +5937,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
@@ -5973,11 +5973,11 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>784</v>
+        <v>853</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
-        <v>,{"pokedex": "243", "busca": ["243", "Raikoudouble"]}</v>
+        <v>,{"pokedex": "243", "busca": ["243", "Raikou"]}</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,11 +5985,11 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>785</v>
+        <v>854</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
-        <v>,{"pokedex": "244", "busca": ["244", "Enteidouble"]}</v>
+        <v>,{"pokedex": "244", "busca": ["244", "Entei"]}</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,11 +5997,11 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>786</v>
+        <v>855</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
-        <v>,{"pokedex": "245", "busca": ["245", "Suicunedouble"]}</v>
+        <v>,{"pokedex": "245", "busca": ["245", "Suicune"]}</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6045,11 +6045,11 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>787</v>
+        <v>856</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
-        <v>,{"pokedex": "249", "busca": ["249", "Lugiadouble"]}</v>
+        <v>,{"pokedex": "249", "busca": ["249", "Lugia"]}</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6057,11 +6057,11 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
-        <v>,{"pokedex": "250", "busca": ["250", "Ho-ohdouble"]}</v>
+        <v>,{"pokedex": "250", "busca": ["250", "Ho-oh"]}</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,7 +6069,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>851</v>
+        <v>801</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
@@ -6081,7 +6081,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
@@ -6153,7 +6153,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="3"/>
@@ -6633,7 +6633,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="4"/>
@@ -7377,7 +7377,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="5"/>
@@ -7581,11 +7581,11 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>789</v>
+        <v>858</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "377", "busca": ["377", "Regirockdouble"]}</v>
+        <v>,{"pokedex": "377", "busca": ["377", "Regirock"]}</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -7593,11 +7593,11 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>790</v>
+        <v>859</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "378", "busca": ["378", "Regicedouble"]}</v>
+        <v>,{"pokedex": "378", "busca": ["378", "Regice"]}</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,11 +7605,11 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>791</v>
+        <v>860</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "379", "busca": ["379", "Registeeldouble"]}</v>
+        <v>,{"pokedex": "379", "busca": ["379", "Registeel"]}</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,11 +7617,11 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>792</v>
+        <v>861</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "380", "busca": ["380", "Latiasdouble"]}</v>
+        <v>,{"pokedex": "380", "busca": ["380", "Latias"]}</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -7629,11 +7629,11 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>793</v>
+        <v>862</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "381", "busca": ["381", "Latiosdouble"]}</v>
+        <v>,{"pokedex": "381", "busca": ["381", "Latios"]}</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -7641,11 +7641,11 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>794</v>
+        <v>863</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "382", "busca": ["382", "Kyogredouble"]}</v>
+        <v>,{"pokedex": "382", "busca": ["382", "Kyogre"]}</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -7653,11 +7653,11 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>795</v>
+        <v>864</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "383", "busca": ["383", "Groudondouble"]}</v>
+        <v>,{"pokedex": "383", "busca": ["383", "Groudon"]}</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -7665,11 +7665,11 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>796</v>
+        <v>865</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="5"/>
-        <v>,{"pokedex": "384", "busca": ["384", "Rayquazadouble"]}</v>
+        <v>,{"pokedex": "384", "busca": ["384", "Rayquaza"]}</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,7 +7677,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>852</v>
+        <v>802</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="5"/>
@@ -7689,7 +7689,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="5"/>
@@ -7701,7 +7701,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" ref="C388:C451" si="6">CONCATENATE(",{""pokedex"": """, TEXT(A388,"000"),""", ""busca"": [","""",A388,"""",", ", """",B388,"""","]}")</f>
@@ -7737,7 +7737,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="6"/>
@@ -7773,7 +7773,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="6"/>
@@ -7929,7 +7929,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>841</v>
+        <v>791</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="6"/>
@@ -8253,7 +8253,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>842</v>
+        <v>792</v>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="6"/>
@@ -8313,7 +8313,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>843</v>
+        <v>793</v>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="6"/>
@@ -8325,7 +8325,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>844</v>
+        <v>794</v>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="6"/>
@@ -8337,7 +8337,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="6"/>
@@ -8409,7 +8409,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>846</v>
+        <v>796</v>
       </c>
       <c r="C447" t="str">
         <f t="shared" si="6"/>
@@ -8421,7 +8421,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="6"/>
@@ -8553,7 +8553,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>848</v>
+        <v>798</v>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="7"/>
@@ -8817,11 +8817,11 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="C481" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "480", "busca": ["480", "Uxiedouble"]}</v>
+        <v>,{"pokedex": "480", "busca": ["480", "Uxie"]}</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -8829,11 +8829,11 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>798</v>
+        <v>867</v>
       </c>
       <c r="C482" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "481", "busca": ["481", "Mespritdouble"]}</v>
+        <v>,{"pokedex": "481", "busca": ["481", "Mesprit"]}</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -8841,11 +8841,11 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>799</v>
+        <v>868</v>
       </c>
       <c r="C483" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "482", "busca": ["482", "Azelfdouble"]}</v>
+        <v>,{"pokedex": "482", "busca": ["482", "Azelf"]}</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,11 +8853,11 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>800</v>
+        <v>869</v>
       </c>
       <c r="C484" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "483", "busca": ["483", "Dialgadouble"]}</v>
+        <v>,{"pokedex": "483", "busca": ["483", "Dialga"]}</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,11 +8865,11 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>801</v>
+        <v>870</v>
       </c>
       <c r="C485" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "484", "busca": ["484", "Palkiadouble"]}</v>
+        <v>,{"pokedex": "484", "busca": ["484", "Palkia"]}</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,11 +8877,11 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>802</v>
+        <v>871</v>
       </c>
       <c r="C486" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "485", "busca": ["485", "Heatrandouble"]}</v>
+        <v>,{"pokedex": "485", "busca": ["485", "Heatran"]}</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -8889,11 +8889,11 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>803</v>
+        <v>872</v>
       </c>
       <c r="C487" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "486", "busca": ["486", "Regigigasdouble"]}</v>
+        <v>,{"pokedex": "486", "busca": ["486", "Regigigas"]}</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -8901,11 +8901,11 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>804</v>
+        <v>873</v>
       </c>
       <c r="C488" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "487", "busca": ["487", "Giratinadouble"]}</v>
+        <v>,{"pokedex": "487", "busca": ["487", "Giratina"]}</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -8913,11 +8913,11 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>805</v>
+        <v>874</v>
       </c>
       <c r="C489" t="str">
         <f t="shared" si="7"/>
-        <v>,{"pokedex": "488", "busca": ["488", "Cresseliadouble"]}</v>
+        <v>,{"pokedex": "488", "busca": ["488", "Cresselia"]}</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -8925,7 +8925,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>854</v>
+        <v>804</v>
       </c>
       <c r="C490" t="str">
         <f t="shared" si="7"/>
@@ -8937,7 +8937,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="C491" t="str">
         <f t="shared" si="7"/>
@@ -8949,7 +8949,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>856</v>
+        <v>806</v>
       </c>
       <c r="C492" t="str">
         <f t="shared" si="7"/>
@@ -8961,7 +8961,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="C493" t="str">
         <f t="shared" si="7"/>
@@ -8973,7 +8973,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="C494" t="str">
         <f t="shared" si="7"/>
@@ -8985,7 +8985,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="C495" t="str">
         <f t="shared" si="7"/>
@@ -8997,7 +8997,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="C496" t="str">
         <f t="shared" si="7"/>
@@ -9033,7 +9033,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="C499" t="str">
         <f t="shared" si="7"/>
@@ -9069,7 +9069,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>887</v>
+        <v>837</v>
       </c>
       <c r="C502" t="str">
         <f t="shared" si="7"/>
@@ -10713,11 +10713,11 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>806</v>
+        <v>875</v>
       </c>
       <c r="C639" t="str">
         <f t="shared" si="9"/>
-        <v>,{"pokedex": "638", "busca": ["638", "Cobaliondouble"]}</v>
+        <v>,{"pokedex": "638", "busca": ["638", "Cobalion"]}</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -10725,11 +10725,11 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>807</v>
+        <v>876</v>
       </c>
       <c r="C640" t="str">
         <f t="shared" si="9"/>
-        <v>,{"pokedex": "639", "busca": ["639", "Terrakiondouble"]}</v>
+        <v>,{"pokedex": "639", "busca": ["639", "Terrakion"]}</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -10737,11 +10737,11 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>808</v>
+        <v>877</v>
       </c>
       <c r="C641" t="str">
         <f t="shared" si="9"/>
-        <v>,{"pokedex": "640", "busca": ["640", "Viriziondouble"]}</v>
+        <v>,{"pokedex": "640", "busca": ["640", "Virizion"]}</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -10749,11 +10749,11 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>809</v>
+        <v>878</v>
       </c>
       <c r="C642" t="str">
         <f t="shared" si="9"/>
-        <v>,{"pokedex": "641", "busca": ["641", "Tornadusdouble"]}</v>
+        <v>,{"pokedex": "641", "busca": ["641", "Tornadus"]}</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -10761,11 +10761,11 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="C643" t="str">
         <f t="shared" si="9"/>
-        <v>,{"pokedex": "642", "busca": ["642", "Thundurusdouble"]}</v>
+        <v>,{"pokedex": "642", "busca": ["642", "Thundurus"]}</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -10773,11 +10773,11 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>811</v>
+        <v>880</v>
       </c>
       <c r="C644" t="str">
         <f t="shared" ref="C644:C707" si="10">CONCATENATE(",{""pokedex"": """, TEXT(A644,"000"),""", ""busca"": [","""",A644,"""",", ", """",B644,"""","]}")</f>
-        <v>,{"pokedex": "643", "busca": ["643", "Reshiramdouble"]}</v>
+        <v>,{"pokedex": "643", "busca": ["643", "Reshiram"]}</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -10785,11 +10785,11 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>812</v>
+        <v>881</v>
       </c>
       <c r="C645" t="str">
         <f t="shared" si="10"/>
-        <v>,{"pokedex": "644", "busca": ["644", "Zekromdouble"]}</v>
+        <v>,{"pokedex": "644", "busca": ["644", "Zekrom"]}</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -10797,11 +10797,11 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>813</v>
+        <v>882</v>
       </c>
       <c r="C646" t="str">
         <f t="shared" si="10"/>
-        <v>,{"pokedex": "645", "busca": ["645", "Landorusdouble"]}</v>
+        <v>,{"pokedex": "645", "busca": ["645", "Landorus"]}</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -10809,11 +10809,11 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>814</v>
+        <v>883</v>
       </c>
       <c r="C647" t="str">
         <f t="shared" si="10"/>
-        <v>,{"pokedex": "646", "busca": ["646", "Kyuremdouble"]}</v>
+        <v>,{"pokedex": "646", "busca": ["646", "Kyurem"]}</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="C648" t="str">
         <f t="shared" si="10"/>
@@ -10833,7 +10833,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>861</v>
+        <v>811</v>
       </c>
       <c r="C649" t="str">
         <f t="shared" si="10"/>
@@ -10845,7 +10845,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="C650" t="str">
         <f t="shared" si="10"/>
@@ -10857,7 +10857,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>888</v>
+        <v>838</v>
       </c>
       <c r="C651" t="str">
         <f t="shared" si="10"/>
@@ -10893,7 +10893,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="C654" t="str">
         <f t="shared" si="10"/>
@@ -10929,7 +10929,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="C657" t="str">
         <f t="shared" si="10"/>
@@ -11649,11 +11649,11 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>815</v>
+        <v>884</v>
       </c>
       <c r="C717" t="str">
         <f t="shared" si="11"/>
-        <v>,{"pokedex": "716", "busca": ["716", "Xerneasdouble"]}</v>
+        <v>,{"pokedex": "716", "busca": ["716", "Xerneas"]}</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -11661,11 +11661,11 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>816</v>
+        <v>885</v>
       </c>
       <c r="C718" t="str">
         <f t="shared" si="11"/>
-        <v>,{"pokedex": "717", "busca": ["717", "Yveltaldouble"]}</v>
+        <v>,{"pokedex": "717", "busca": ["717", "Yveltal"]}</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -11673,11 +11673,11 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>817</v>
+        <v>886</v>
       </c>
       <c r="C719" t="str">
         <f t="shared" si="11"/>
-        <v>,{"pokedex": "718", "busca": ["718", "Zygardedouble"]}</v>
+        <v>,{"pokedex": "718", "busca": ["718", "Zygarde"]}</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -11685,7 +11685,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="C720" t="str">
         <f t="shared" si="11"/>
@@ -11697,7 +11697,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="C721" t="str">
         <f t="shared" si="11"/>
@@ -11709,7 +11709,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>865</v>
+        <v>815</v>
       </c>
       <c r="C722" t="str">
         <f t="shared" si="11"/>
@@ -11721,7 +11721,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="C723" t="str">
         <f t="shared" si="11"/>
@@ -11757,7 +11757,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="C726" t="str">
         <f t="shared" si="11"/>
@@ -11793,7 +11793,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="C729" t="str">
         <f t="shared" si="11"/>
@@ -12477,11 +12477,11 @@
         <v>785</v>
       </c>
       <c r="B786" t="s">
-        <v>818</v>
+        <v>887</v>
       </c>
       <c r="C786" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "785", "busca": ["785", "Tapu Kokodouble"]}</v>
+        <v>,{"pokedex": "785", "busca": ["785", "Tapu Koko"]}</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -12489,11 +12489,11 @@
         <v>786</v>
       </c>
       <c r="B787" t="s">
-        <v>819</v>
+        <v>888</v>
       </c>
       <c r="C787" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "786", "busca": ["786", "Tapu Leledouble"]}</v>
+        <v>,{"pokedex": "786", "busca": ["786", "Tapu Lele"]}</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -12501,11 +12501,11 @@
         <v>787</v>
       </c>
       <c r="B788" t="s">
-        <v>820</v>
+        <v>889</v>
       </c>
       <c r="C788" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "787", "busca": ["787", "Tapu Buludouble"]}</v>
+        <v>,{"pokedex": "787", "busca": ["787", "Tapu Bulu"]}</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -12513,11 +12513,11 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>821</v>
+        <v>890</v>
       </c>
       <c r="C789" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "788", "busca": ["788", "Tapu Finidouble"]}</v>
+        <v>,{"pokedex": "788", "busca": ["788", "Tapu Fini"]}</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -12525,11 +12525,11 @@
         <v>789</v>
       </c>
       <c r="B790" t="s">
-        <v>822</v>
+        <v>891</v>
       </c>
       <c r="C790" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "789", "busca": ["789", "Cosmogdouble"]}</v>
+        <v>,{"pokedex": "789", "busca": ["789", "Cosmog"]}</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
@@ -12537,11 +12537,11 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>823</v>
+        <v>892</v>
       </c>
       <c r="C791" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "790", "busca": ["790", "Cosmoemdouble"]}</v>
+        <v>,{"pokedex": "790", "busca": ["790", "Cosmoem"]}</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -12549,11 +12549,11 @@
         <v>791</v>
       </c>
       <c r="B792" t="s">
-        <v>824</v>
+        <v>893</v>
       </c>
       <c r="C792" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "791", "busca": ["791", "Solgaleodouble"]}</v>
+        <v>,{"pokedex": "791", "busca": ["791", "Solgaleo"]}</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
@@ -12561,11 +12561,11 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>825</v>
+        <v>894</v>
       </c>
       <c r="C793" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "792", "busca": ["792", "Lunaladouble"]}</v>
+        <v>,{"pokedex": "792", "busca": ["792", "Lunala"]}</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,11 +12657,11 @@
         <v>800</v>
       </c>
       <c r="B801" t="s">
-        <v>826</v>
+        <v>895</v>
       </c>
       <c r="C801" t="str">
         <f t="shared" si="12"/>
-        <v>,{"pokedex": "800", "busca": ["800", "Necrozmadouble"]}</v>
+        <v>,{"pokedex": "800", "busca": ["800", "Necrozma"]}</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -12669,7 +12669,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="C802" t="str">
         <f t="shared" si="12"/>
@@ -12681,7 +12681,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="s">
-        <v>867</v>
+        <v>817</v>
       </c>
       <c r="C803" t="str">
         <f t="shared" si="12"/>
@@ -12741,7 +12741,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="C808" t="str">
         <f t="shared" si="12"/>
@@ -12753,7 +12753,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="C809" t="str">
         <f t="shared" si="12"/>
@@ -12765,7 +12765,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="C810" t="str">
         <f t="shared" si="12"/>
@@ -12777,7 +12777,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="C811" t="str">
         <f t="shared" si="12"/>
@@ -12813,7 +12813,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="C814" t="str">
         <f t="shared" si="12"/>
@@ -12849,7 +12849,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="C817" t="str">
         <f t="shared" si="12"/>
@@ -13233,7 +13233,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="s">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="C849" t="str">
         <f t="shared" si="13"/>
@@ -13713,11 +13713,11 @@
         <v>888</v>
       </c>
       <c r="B889" t="s">
-        <v>827</v>
+        <v>896</v>
       </c>
       <c r="C889" t="str">
         <f t="shared" si="13"/>
-        <v>,{"pokedex": "888", "busca": ["888", "Zaciandouble"]}</v>
+        <v>,{"pokedex": "888", "busca": ["888", "Zacian"]}</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
@@ -13725,11 +13725,11 @@
         <v>889</v>
       </c>
       <c r="B890" t="s">
-        <v>828</v>
+        <v>897</v>
       </c>
       <c r="C890" t="str">
         <f t="shared" si="13"/>
-        <v>,{"pokedex": "889", "busca": ["889", "Zamazentadouble"]}</v>
+        <v>,{"pokedex": "889", "busca": ["889", "Zamazenta"]}</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
@@ -13737,11 +13737,11 @@
         <v>890</v>
       </c>
       <c r="B891" t="s">
-        <v>829</v>
+        <v>898</v>
       </c>
       <c r="C891" t="str">
         <f t="shared" si="13"/>
-        <v>,{"pokedex": "890", "busca": ["890", "Eternatusdouble"]}</v>
+        <v>,{"pokedex": "890", "busca": ["890", "Eternatus"]}</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
